--- a/static/src/assets/demo_file.xlsx
+++ b/static/src/assets/demo_file.xlsx
@@ -20,75 +20,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
-  <si>
-    <t xml:space="preserve">Test Case ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">Test Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source Table:Target Table</t>
   </si>
   <si>
     <t xml:space="preserve">Columns</t>
   </si>
   <si>
-    <t xml:space="preserve">Table Source:Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test queries</t>
+    <t xml:space="preserve">Custom queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CountCheck</t>
   </si>
   <si>
     <t xml:space="preserve">Count Verification</t>
   </si>
   <si>
-    <t xml:space="preserve">@sourcedbType: mysql
-'@sourceServer: localhost
-'@sourcedb: source_db
-'@targetdbType: mysql
-'@targetdb: dest_db
-'@targetServer : localhost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">src_inventory:dest_inventory;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CountCheck</t>
+    <t xml:space="preserve">SourcedbType:mysql;
+sourceServer:localhost;
+sourcedb:TestDB;
+targetdbType:mysql;
+targetdb:NewTestDB;
+targetServer:localhost:222;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory:NewInventory1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@srcqry1:Select count(1) from Inventory where id&gt;10;@targetqry:Select count(1) from NewInventory where id&gt;10;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datavalidation</t>
   </si>
   <si>
     <t xml:space="preserve">Data Validation</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datavalidation</t>
+    <t xml:space="preserve">sourcedbType:mysql;
+sourceServer:localhost;
+sourcedb:TestDB;
+targetdbType:mysql;
+targetdb:NewTestDB;
+targetServer:localhost;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory:NewInventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuplicateCheck</t>
   </si>
   <si>
     <t xml:space="preserve">Find Duplicates</t>
   </si>
   <si>
-    <t xml:space="preserve">CTL_ID;ID;ISDELETED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DuplicateCheck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Null Check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISDELETED</t>
-  </si>
-  <si>
     <t xml:space="preserve">NullCheck</t>
   </si>
   <si>
+    <t xml:space="preserve">Null Checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDLCheck</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schema Compare</t>
   </si>
   <si>
-    <t xml:space="preserve">DDLCheck</t>
+    <t xml:space="preserve">Duplicate check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@targetqry:SELECT id, count(*) from NewInventory group by id having count(*) &gt;1</t>
   </si>
 </sst>
 </file>
@@ -98,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -136,14 +146,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,12 +158,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000090"/>
         <bgColor rgb="FF000080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -204,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -218,23 +216,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -314,25 +300,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="25.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="70"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="7" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="8.83"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -351,176 +336,173 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" s="5" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="AMJ6" s="0"/>
+    </row>
+    <row r="7" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" s="5" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="AMJ8" s="0"/>
+    </row>
+    <row r="9" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" s="5" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AMJ9" s="0"/>
+    </row>
+    <row r="10" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" s="5" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" s="5" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" s="5" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" s="5" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" s="5" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" s="5" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="AMJ10" s="0"/>
+    </row>
+    <row r="11" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="AMJ11" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/static/src/assets/demo_file.xlsx
+++ b/static/src/assets/demo_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t xml:space="preserve">Test Class</t>
   </si>
@@ -44,36 +44,25 @@
   </si>
   <si>
     <t xml:space="preserve">Count Verification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SourcedbType:mysql;
-sourceServer:localhost;
-sourcedb:TestDB;
-targetdbType:mysql;
-targetdb:NewTestDB;
-targetServer:localhost:222;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inventory:NewInventory1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@srcqry1:Select count(1) from Inventory where id&gt;10;@targetqry:Select count(1) from NewInventory where id&gt;10;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datavalidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Validation</t>
   </si>
   <si>
     <t xml:space="preserve">sourcedbType:mysql;
 sourceServer:localhost;
-sourcedb:TestDB;
+sourcedb:source_db;
 targetdbType:mysql;
-targetdb:NewTestDB;
+targetdb:dest_db;
 targetServer:localhost;</t>
   </si>
   <si>
+    <t xml:space="preserve">Inventory:NewInventory1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datavalidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Validation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inventory:NewInventory</t>
   </si>
   <si>
@@ -83,12 +72,18 @@
     <t xml:space="preserve">Find Duplicates</t>
   </si>
   <si>
+    <t xml:space="preserve">src_inventory:dest_inventory</t>
+  </si>
+  <si>
     <t xml:space="preserve">NullCheck</t>
   </si>
   <si>
     <t xml:space="preserve">Null Checks</t>
   </si>
   <si>
+    <t xml:space="preserve">DELETE_FLAG</t>
+  </si>
+  <si>
     <t xml:space="preserve">DDLCheck</t>
   </si>
   <si>
@@ -96,9 +91,6 @@
   </si>
   <si>
     <t xml:space="preserve">Duplicate check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@targetqry:SELECT id, count(*) from NewInventory group by id having count(*) &gt;1</t>
   </si>
 </sst>
 </file>
@@ -108,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -145,6 +137,13 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF008080"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -202,7 +201,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,6 +220,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -302,8 +305,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B6" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -338,7 +341,7 @@
       </c>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -352,23 +355,21 @@
         <v>9</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F2" s="3"/>
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -376,35 +377,37 @@
     </row>
     <row r="4" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="4" customFormat="true" ht="88.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="AMJ5" s="0"/>
     </row>
@@ -416,10 +419,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -433,10 +436,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -444,16 +447,16 @@
     </row>
     <row r="8" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -461,35 +464,33 @@
     </row>
     <row r="9" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>

--- a/static/src/assets/demo_file.xlsx
+++ b/static/src/assets/demo_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t xml:space="preserve">Test Class</t>
   </si>
@@ -49,12 +49,14 @@
     <t xml:space="preserve">sourcedbType:mysql;
 sourceServer:localhost;
 sourcedb:source_db;
-targetdbType:mysql;
+sourceuser:acciom_user;
+TargetdbType:mysql;
 targetdb:dest_db;
-targetServer:localhost;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inventory:NewInventory1</t>
+targetServer:localhost;
+targetuser:Acciom_user;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src_inventory:dest_inventory</t>
   </si>
   <si>
     <t xml:space="preserve">Datavalidation</t>
@@ -63,16 +65,10 @@
     <t xml:space="preserve">Data Validation</t>
   </si>
   <si>
-    <t xml:space="preserve">Inventory:NewInventory</t>
-  </si>
-  <si>
     <t xml:space="preserve">DuplicateCheck</t>
   </si>
   <si>
     <t xml:space="preserve">Find Duplicates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">src_inventory:dest_inventory</t>
   </si>
   <si>
     <t xml:space="preserve">NullCheck</t>
@@ -144,6 +140,7 @@
       <color rgb="FF008080"/>
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -305,8 +302,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B6" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -341,7 +338,7 @@
       </c>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="142" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -358,7 +355,7 @@
       <c r="F2" s="3"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="4" customFormat="true" ht="126.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -369,66 +366,66 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="4" customFormat="true" ht="126.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="4" customFormat="true" ht="88.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="4" customFormat="true" ht="136.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="3"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="4" customFormat="true" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="4" customFormat="true" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -439,13 +436,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="4" customFormat="true" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -456,41 +453,41 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="4" customFormat="true" ht="146.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="4" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="4" customFormat="true" ht="136.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>

--- a/static/src/assets/demo_file.xlsx
+++ b/static/src/assets/demo_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t xml:space="preserve">Test Class</t>
   </si>
@@ -49,8 +49,8 @@
     <t xml:space="preserve">sourcedbType:mysql;
 sourceServer:localhost;
 sourcedb:source_db;
-sourceuser:acciom_user;
-TargetdbType:mysql;
+sourceuser:Acciom_user;
+targetdbType:mysql;
 targetdb:dest_db;
 targetServer:localhost;
 targetuser:Acciom_user;</t>
@@ -59,6 +59,9 @@
     <t xml:space="preserve">src_inventory:dest_inventory</t>
   </si>
   <si>
+    <t xml:space="preserve">srcqry:SELECT COUNT( 1)  FROM src_inventory where Company_key &lt;100;targetqry:SELECT COUNT(1) FROM dest_inventory where Company_key &lt;200</t>
+  </si>
+  <si>
     <t xml:space="preserve">Datavalidation</t>
   </si>
   <si>
@@ -71,13 +74,13 @@
     <t xml:space="preserve">Find Duplicates</t>
   </si>
   <si>
+    <t xml:space="preserve">DELETE_FLAG</t>
+  </si>
+  <si>
     <t xml:space="preserve">NullCheck</t>
   </si>
   <si>
     <t xml:space="preserve">Null Checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELETE_FLAG</t>
   </si>
   <si>
     <t xml:space="preserve">DDLCheck</t>
@@ -302,8 +305,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -352,15 +355,17 @@
         <v>9</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="4" customFormat="true" ht="126.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -374,10 +379,10 @@
     </row>
     <row r="4" s="4" customFormat="true" ht="126.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -385,35 +390,37 @@
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="4" customFormat="true" ht="136.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="F5" s="3"/>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="4" customFormat="true" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -444,10 +451,10 @@
     </row>
     <row r="8" s="4" customFormat="true" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -461,10 +468,10 @@
     </row>
     <row r="9" s="4" customFormat="true" ht="146.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -472,16 +479,18 @@
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="4" customFormat="true" ht="136.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
